--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sricloud-my.sharepoint.com/personal/jdascanio_stoneridge_com/Documents/Documentos/Python/Garantias2025/srg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D05E6BC7F929115943A0B14CC3EFF5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6F2D1F4-0C07-4620-8A5E-B13CBB3E5624}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3005C11135B341159AF18F64139EFAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2D384AA-185C-4A0A-B5DD-8CBA9376254E}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,16 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>order_header_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>Distribuidor</t>
   </si>
@@ -50,12 +41,12 @@
     <t>Nro_Orden</t>
   </si>
   <si>
-    <t>Nro_Orden_Provisorio</t>
-  </si>
-  <si>
     <t>Familia</t>
   </si>
   <si>
+    <t>Subcategoria</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -92,73 +83,118 @@
     <t>PST ELETRONICA</t>
   </si>
   <si>
-    <t>VF2217260206</t>
-  </si>
-  <si>
     <t>alarma</t>
   </si>
   <si>
-    <t>ALARMA Cyber FX360 DPN</t>
-  </si>
-  <si>
-    <t>Atención especial</t>
-  </si>
-  <si>
-    <t>LD2219180206</t>
-  </si>
-  <si>
-    <t>ALARMA Cyber FX360</t>
-  </si>
-  <si>
-    <t>QD2222530206</t>
+    <t>Alarma Auto</t>
+  </si>
+  <si>
+    <t>ALARMA  Exact 360 Volumetrica</t>
+  </si>
+  <si>
+    <t>Falla Sensor Ultrasonido</t>
+  </si>
+  <si>
+    <t>2-B</t>
+  </si>
+  <si>
+    <t>Lucas</t>
   </si>
   <si>
     <t>audio</t>
   </si>
   <si>
-    <t>Frente estereo</t>
-  </si>
-  <si>
-    <t>Parlante 6'' ATP-6030</t>
-  </si>
-  <si>
-    <t>Actualización de Software</t>
-  </si>
-  <si>
-    <t>CT2224360206</t>
-  </si>
-  <si>
-    <t>EB2225080206</t>
+    <t>Radio 1 din</t>
+  </si>
+  <si>
+    <t>SP 2240 BT</t>
+  </si>
+  <si>
+    <t>No funciona Bluetooth</t>
+  </si>
+  <si>
+    <t>2-A</t>
+  </si>
+  <si>
+    <t>ALARMA Cyber FX 360 DPN</t>
+  </si>
+  <si>
+    <t>No Funciona</t>
+  </si>
+  <si>
+    <t>ALARMA KEYLESS 330 US</t>
+  </si>
+  <si>
+    <t>Falla Entrada de disparo por puertas</t>
+  </si>
+  <si>
+    <t>Radio Indash</t>
+  </si>
+  <si>
+    <t>SP 6330 BT</t>
+  </si>
+  <si>
+    <t>Se tilda</t>
+  </si>
+  <si>
+    <t>Accesorio</t>
   </si>
   <si>
     <t>Control remoto</t>
   </si>
   <si>
-    <t>Acelerómetro no funciona</t>
-  </si>
-  <si>
-    <t>PL1546250207</t>
-  </si>
-  <si>
-    <t>tacografo</t>
-  </si>
-  <si>
-    <t>Tacografo</t>
-  </si>
-  <si>
-    <t>Tacografo TC100</t>
-  </si>
-  <si>
-    <t>Botonera</t>
+    <t>Control remoto PXN-32</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Tofalo</t>
+  </si>
+  <si>
+    <t>Sin Falla</t>
   </si>
   <si>
     <t>1-A</t>
   </si>
   <si>
-    <t>Tarjeta SD</t>
-  </si>
-  <si>
-    <t>SP 2230 BT</t>
+    <t>Modulo Alarma</t>
+  </si>
+  <si>
+    <t>ALARMA Cyber FX 360</t>
+  </si>
+  <si>
+    <t>8210500383</t>
+  </si>
+  <si>
+    <t>Nasound</t>
+  </si>
+  <si>
+    <t>Falso disparo</t>
+  </si>
+  <si>
+    <t>8230700354</t>
+  </si>
+  <si>
+    <t>Guille</t>
+  </si>
+  <si>
+    <t>Repuesto</t>
+  </si>
+  <si>
+    <t>Sensor Ultrasonido</t>
+  </si>
+  <si>
+    <t>Sensor Ultra Sonido SE 300RX</t>
+  </si>
+  <si>
+    <t>Penta Kar</t>
+  </si>
+  <si>
+    <t>8181200128</t>
+  </si>
+  <si>
+    <t>Sensor Ultra Sonido SE 300TX</t>
   </si>
 </sst>
 </file>
@@ -177,7 +213,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -522,35 +557,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="2.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.9453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.89453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.41796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.3671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.83984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.3671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,298 +628,267 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L11" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>126</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>54</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>55</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>142</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>142</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>58</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>142</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
